--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,34 +549,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.173174</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N2">
-        <v>0.519522</v>
+        <v>1.09297</v>
       </c>
       <c r="O2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q2">
-        <v>1.806939655006667</v>
+        <v>3.801438312011111</v>
       </c>
       <c r="R2">
-        <v>16.26245689506</v>
+        <v>34.2129448081</v>
       </c>
       <c r="S2">
-        <v>0.04594066259994131</v>
+        <v>0.08881895887732785</v>
       </c>
       <c r="T2">
-        <v>0.04594066259994132</v>
+        <v>0.08881895887732787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +623,10 @@
         <v>2.642808</v>
       </c>
       <c r="O3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q3">
         <v>9.191900585093334</v>
@@ -632,10 +635,10 @@
         <v>82.72710526584</v>
       </c>
       <c r="S3">
-        <v>0.2337001140364136</v>
+        <v>0.2147647740310101</v>
       </c>
       <c r="T3">
-        <v>0.2337001140364137</v>
+        <v>0.2147647740310101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.606500333333333</v>
+        <v>2.721212</v>
       </c>
       <c r="N4">
-        <v>7.819501</v>
+        <v>8.163636</v>
       </c>
       <c r="O4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="P4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="Q4">
-        <v>27.19685872641444</v>
+        <v>28.39378816958666</v>
       </c>
       <c r="R4">
-        <v>244.77172853773</v>
+        <v>255.54409352628</v>
       </c>
       <c r="S4">
-        <v>0.6914684212428033</v>
+        <v>0.6634085566607256</v>
       </c>
       <c r="T4">
-        <v>0.6914684212428034</v>
+        <v>0.6634085566607257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.310422</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H5">
-        <v>0.9312659999999999</v>
+        <v>31.30273</v>
       </c>
       <c r="I5">
-        <v>0.02889080212084161</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J5">
-        <v>0.02889080212084161</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.173174</v>
+        <v>0.016887</v>
       </c>
       <c r="N5">
-        <v>0.519522</v>
+        <v>0.050661</v>
       </c>
       <c r="O5">
-        <v>0.0473074116693291</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="P5">
-        <v>0.0473074116693291</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="Q5">
-        <v>0.053757019428</v>
+        <v>0.17620306717</v>
       </c>
       <c r="R5">
-        <v>0.483813174852</v>
+        <v>1.58582760453</v>
       </c>
       <c r="S5">
-        <v>0.00136674906938778</v>
+        <v>0.004116908310094793</v>
       </c>
       <c r="T5">
-        <v>0.00136674906938778</v>
+        <v>0.004116908310094793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8809360000000001</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N6">
-        <v>2.642808</v>
+        <v>1.09297</v>
       </c>
       <c r="O6">
-        <v>0.2406527654632456</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P6">
-        <v>0.2406527654632456</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q6">
-        <v>0.273461914992</v>
+        <v>0.11309397778</v>
       </c>
       <c r="R6">
-        <v>2.461157234928</v>
+        <v>1.01784580002</v>
       </c>
       <c r="S6">
-        <v>0.006952651426831934</v>
+        <v>0.002642391783651253</v>
       </c>
       <c r="T6">
-        <v>0.006952651426831936</v>
+        <v>0.002642391783651254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.606500333333333</v>
+        <v>0.8809360000000001</v>
       </c>
       <c r="N7">
-        <v>7.819501</v>
+        <v>2.642808</v>
       </c>
       <c r="O7">
-        <v>0.7120398228674253</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P7">
-        <v>0.7120398228674253</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q7">
-        <v>0.809115046474</v>
+        <v>0.273461914992</v>
       </c>
       <c r="R7">
-        <v>7.282035418265999</v>
+        <v>2.461157234928</v>
       </c>
       <c r="S7">
-        <v>0.02057140162462189</v>
+        <v>0.006389319144137352</v>
       </c>
       <c r="T7">
-        <v>0.0205714016246219</v>
+        <v>0.006389319144137353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.310422</v>
+      </c>
+      <c r="H8">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.721212</v>
+      </c>
+      <c r="N8">
+        <v>8.163636</v>
+      </c>
+      <c r="O8">
+        <v>0.6831451685449673</v>
+      </c>
+      <c r="P8">
+        <v>0.6831451685449673</v>
+      </c>
+      <c r="Q8">
+        <v>0.844724071464</v>
+      </c>
+      <c r="R8">
+        <v>7.602516643176</v>
+      </c>
+      <c r="S8">
+        <v>0.01973661188424164</v>
+      </c>
+      <c r="T8">
+        <v>0.01973661188424164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.310422</v>
+      </c>
+      <c r="H9">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.016887</v>
+      </c>
+      <c r="N9">
+        <v>0.050661</v>
+      </c>
+      <c r="O9">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="P9">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="Q9">
+        <v>0.005242096314</v>
+      </c>
+      <c r="R9">
+        <v>0.047178866826</v>
+      </c>
+      <c r="S9">
+        <v>0.0001224793088113637</v>
+      </c>
+      <c r="T9">
+        <v>0.0001224793088113637</v>
       </c>
     </row>
   </sheetData>
